--- a/PhoenixCI/Excel_Template/40021.xlsx
+++ b/PhoenixCI/Excel_Template/40021.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\需求單\1071230\ExcelTemplate\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KJSOFT\source\repos\buckblader\RekindlePhoenixCI\PhoenixCI\Excel_Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{961470DD-1719-4F2F-AB01-81A344C436F1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3045" yWindow="-30" windowWidth="7650" windowHeight="7335" tabRatio="962" activeTab="2"/>
+    <workbookView xWindow="3045" yWindow="-30" windowWidth="7650" windowHeight="7335" tabRatio="962" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Span參數日狀況表(一)" sheetId="26" r:id="rId1"/>
@@ -27,7 +28,14 @@
     <definedName name="XX_TEJ5">#REF!</definedName>
     <definedName name="XX_TEJ6">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -227,10 +235,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>變動幅度已達 10% 之得調整標準，建議事項如「SPAN參數調整審核會議記錄」.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>經　辦：______________          覆核：______________             經理：______________</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -399,60 +403,6 @@
         <family val="4"/>
         <charset val="136"/>
       </rPr>
-      <t>變動幅度已達</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> 10% </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>之得調整標準，建議事項如「</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>SPAN</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>參數調整審核會議記錄」</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>.</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
       <t>除作業事項</t>
     </r>
     <r>
@@ -714,18 +664,142 @@
     <t>ETC</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>變動幅度已達</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="4"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">10% </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>之得調整標準，建議事項如「</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>SPAN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>參數調整審核會議紀錄」</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>變動幅度已達</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="4"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">10% </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>之得調整標準，建議事項如「</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>SPAN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>參數調整審核會議紀錄」</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="#,##0_ "/>
     <numFmt numFmtId="177" formatCode="0.00_ "/>
     <numFmt numFmtId="178" formatCode="0.0%"/>
     <numFmt numFmtId="179" formatCode="0.0%_);\(0.0%\);*-"/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="22">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -855,6 +929,17 @@
       <family val="4"/>
       <charset val="136"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+      <family val="4"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+      <family val="4"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -909,7 +994,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1095,12 +1180,21 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1115,14 +1209,17 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般 2" xfId="1"/>
-    <cellStyle name="一般 3" xfId="2"/>
-    <cellStyle name="百分比 2" xfId="3"/>
-    <cellStyle name="百分比 3" xfId="4"/>
+    <cellStyle name="一般 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="一般 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="百分比 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="百分比 3" xfId="4" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1226,6 +1323,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1261,6 +1375,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1436,12 +1567,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet9"/>
   <dimension ref="A2:G54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:E2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1457,12 +1588,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:6">
-      <c r="D2" s="65"/>
-      <c r="E2" s="66"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="E3" s="65"/>
-      <c r="F3" s="66"/>
+      <c r="E3" s="67"/>
+      <c r="F3" s="68"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="53" t="s">
@@ -1584,7 +1715,7 @@
     </row>
     <row r="14" spans="1:6" ht="25.5" customHeight="1">
       <c r="B14" s="64" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C14" s="37" t="e">
         <f>#REF!</f>
@@ -1600,7 +1731,7 @@
     </row>
     <row r="15" spans="1:6" ht="25.5" customHeight="1">
       <c r="B15" s="64" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C15" s="37" t="e">
         <f>#REF!</f>
@@ -1677,8 +1808,8 @@
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="5"/>
-      <c r="B23" s="6" t="s">
-        <v>27</v>
+      <c r="B23" s="7" t="s">
+        <v>51</v>
       </c>
       <c r="C23" s="5"/>
       <c r="D23" s="10"/>
@@ -1704,7 +1835,7 @@
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B26" s="12"/>
       <c r="C26" s="12"/>
@@ -1750,12 +1881,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet10"/>
   <dimension ref="A1:P74"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:I1"/>
+      <selection activeCell="M57" sqref="M57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -1769,19 +1900,20 @@
   <sheetData>
     <row r="1" spans="1:9" ht="46.5" customHeight="1">
       <c r="A1" s="13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B1" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="49"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
-      <c r="I1" s="70"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="73"/>
     </row>
     <row r="2" spans="1:9" ht="16.5">
       <c r="B2" s="15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="15.95" customHeight="1">
@@ -1807,7 +1939,7 @@
         <v>7</v>
       </c>
       <c r="I3" s="50" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -1941,10 +2073,10 @@
     <row r="11" spans="1:9" ht="16.5">
       <c r="A11" s="22"/>
       <c r="B11" s="57" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C11" s="58" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D11" s="25"/>
       <c r="E11" s="25"/>
@@ -1956,7 +2088,7 @@
     <row r="12" spans="1:9">
       <c r="A12" s="22"/>
       <c r="B12" s="58" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C12" s="59">
         <v>0.88</v>
@@ -2059,7 +2191,7 @@
     <row r="21" spans="1:9" ht="16.5">
       <c r="A21" s="22"/>
       <c r="B21" s="15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C21" s="25"/>
       <c r="D21" s="25"/>
@@ -2093,7 +2225,7 @@
         <v>7</v>
       </c>
       <c r="I22" s="50" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -2248,10 +2380,10 @@
     <row r="30" spans="1:9" ht="16.5">
       <c r="A30" s="22"/>
       <c r="B30" s="61" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C30" s="62" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D30" s="25"/>
       <c r="E30" s="25"/>
@@ -2263,7 +2395,7 @@
     <row r="31" spans="1:9">
       <c r="A31" s="22"/>
       <c r="B31" s="62" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C31" s="63" t="e">
         <f>#REF!</f>
@@ -2367,7 +2499,7 @@
     <row r="40" spans="1:9" ht="16.5">
       <c r="A40" s="22"/>
       <c r="B40" s="15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C40" s="25"/>
       <c r="D40" s="25"/>
@@ -2380,7 +2512,7 @@
     <row r="41" spans="1:9" ht="16.5">
       <c r="A41" s="22"/>
       <c r="B41" s="15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C41" s="25"/>
       <c r="D41" s="25"/>
@@ -2414,7 +2546,7 @@
         <v>7</v>
       </c>
       <c r="I42" s="50" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -2549,16 +2681,16 @@
     <row r="50" spans="1:16" ht="15.95" customHeight="1">
       <c r="A50" s="32"/>
       <c r="B50" s="57" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C50" s="58" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="51" spans="1:16" ht="15.95" customHeight="1">
       <c r="A51" s="32"/>
       <c r="B51" s="58" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C51" s="60" t="e">
         <f>ROUNDUP((C31-C12)/C12,3)</f>
@@ -2577,10 +2709,10 @@
     </row>
     <row r="53" spans="1:16" ht="16.5">
       <c r="A53" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="B53" s="29" t="s">
         <v>35</v>
-      </c>
-      <c r="B53" s="29" t="s">
-        <v>36</v>
       </c>
       <c r="C53" s="30"/>
       <c r="D53" s="30"/>
@@ -2598,7 +2730,7 @@
     <row r="55" spans="1:16" ht="16.5">
       <c r="A55" s="22"/>
       <c r="B55" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C55" s="30"/>
       <c r="D55" s="30"/>
@@ -2613,21 +2745,21 @@
     </row>
     <row r="56" spans="1:16" ht="31.5" customHeight="1">
       <c r="A56" s="47" t="s">
-        <v>38</v>
-      </c>
-      <c r="B56" s="69"/>
-      <c r="C56" s="69"/>
-      <c r="D56" s="69"/>
-      <c r="E56" s="69"/>
-      <c r="F56" s="69"/>
-      <c r="G56" s="69"/>
-      <c r="H56" s="69"/>
+        <v>37</v>
+      </c>
+      <c r="B56" s="72"/>
+      <c r="C56" s="72"/>
+      <c r="D56" s="72"/>
+      <c r="E56" s="72"/>
+      <c r="F56" s="72"/>
+      <c r="G56" s="72"/>
+      <c r="H56" s="72"/>
       <c r="I56" s="46"/>
     </row>
     <row r="57" spans="1:16" ht="16.5">
       <c r="A57" s="22"/>
-      <c r="B57" s="29" t="s">
-        <v>39</v>
+      <c r="B57" s="66" t="s">
+        <v>50</v>
       </c>
       <c r="C57" s="22"/>
       <c r="D57" s="33"/>
@@ -2645,26 +2777,26 @@
       <c r="A59" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="B59" s="67" t="s">
-        <v>40</v>
-      </c>
-      <c r="C59" s="68"/>
-      <c r="D59" s="68"/>
-      <c r="E59" s="68"/>
-      <c r="F59" s="68"/>
-      <c r="G59" s="68"/>
-      <c r="H59" s="68"/>
+      <c r="B59" s="70" t="s">
+        <v>38</v>
+      </c>
+      <c r="C59" s="71"/>
+      <c r="D59" s="71"/>
+      <c r="E59" s="71"/>
+      <c r="F59" s="71"/>
+      <c r="G59" s="71"/>
+      <c r="H59" s="71"/>
       <c r="I59" s="45"/>
     </row>
     <row r="60" spans="1:16">
       <c r="A60" s="32"/>
-      <c r="B60" s="68"/>
-      <c r="C60" s="68"/>
-      <c r="D60" s="68"/>
-      <c r="E60" s="68"/>
-      <c r="F60" s="68"/>
-      <c r="G60" s="68"/>
-      <c r="H60" s="68"/>
+      <c r="B60" s="71"/>
+      <c r="C60" s="71"/>
+      <c r="D60" s="71"/>
+      <c r="E60" s="71"/>
+      <c r="F60" s="71"/>
+      <c r="G60" s="71"/>
+      <c r="H60" s="71"/>
       <c r="I60" s="45"/>
     </row>
     <row r="61" spans="1:16">
@@ -2672,7 +2804,7 @@
     </row>
     <row r="62" spans="1:16" ht="16.5">
       <c r="A62" s="29" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="72" ht="15.95" customHeight="1"/>
@@ -2699,14 +2831,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet11">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:P79"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:J1"/>
+    <sheetView topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="L59" sqref="L59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -2725,20 +2857,20 @@
   <sheetData>
     <row r="1" spans="1:10" ht="43.5" customHeight="1">
       <c r="A1" s="13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F1" s="49"/>
       <c r="G1" s="49"/>
-      <c r="H1" s="70"/>
-      <c r="I1" s="70"/>
-      <c r="J1" s="70"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="75"/>
+      <c r="J1" s="75"/>
     </row>
     <row r="2" spans="1:10" ht="16.5">
       <c r="B2" s="15" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="15.95" customHeight="1">
@@ -2764,7 +2896,7 @@
         <v>7</v>
       </c>
       <c r="I3" s="18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -2898,10 +3030,10 @@
     <row r="11" spans="1:10" ht="16.5">
       <c r="A11" s="22"/>
       <c r="B11" s="57" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C11" s="58" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D11" s="25"/>
       <c r="E11" s="25"/>
@@ -2913,7 +3045,7 @@
     <row r="12" spans="1:10">
       <c r="A12" s="22"/>
       <c r="B12" s="58" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C12" s="59">
         <v>0.5</v>
@@ -3038,7 +3170,7 @@
     <row r="23" spans="1:9" ht="16.5">
       <c r="A23" s="22"/>
       <c r="B23" s="15" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C23" s="25"/>
       <c r="D23" s="25"/>
@@ -3072,7 +3204,7 @@
         <v>7</v>
       </c>
       <c r="I24" s="18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -3227,10 +3359,10 @@
     <row r="32" spans="1:9" ht="16.5">
       <c r="A32" s="22"/>
       <c r="B32" s="57" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C32" s="58" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D32" s="25"/>
       <c r="E32" s="25"/>
@@ -3242,7 +3374,7 @@
     <row r="33" spans="1:9">
       <c r="A33" s="22"/>
       <c r="B33" s="58" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C33" s="59" t="e">
         <f>#REF!</f>
@@ -3346,7 +3478,7 @@
     <row r="42" spans="1:9" ht="16.5">
       <c r="A42" s="22"/>
       <c r="B42" s="15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C42" s="25"/>
       <c r="D42" s="25"/>
@@ -3393,7 +3525,7 @@
         <v>7</v>
       </c>
       <c r="I44" s="18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -3535,10 +3667,10 @@
     <row r="52" spans="1:16" ht="16.5">
       <c r="A52" s="28"/>
       <c r="B52" s="57" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C52" s="58" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D52" s="25"/>
       <c r="E52" s="25"/>
@@ -3549,7 +3681,7 @@
     <row r="53" spans="1:16">
       <c r="A53" s="28"/>
       <c r="B53" s="58" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C53" s="60" t="e">
         <f>ROUNDUP((C33-C12)/C12,3)</f>
@@ -3573,10 +3705,10 @@
     </row>
     <row r="55" spans="1:16" ht="16.5">
       <c r="A55" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="B55" s="29" t="s">
         <v>35</v>
-      </c>
-      <c r="B55" s="29" t="s">
-        <v>36</v>
       </c>
       <c r="C55" s="30"/>
       <c r="D55" s="30"/>
@@ -3588,7 +3720,7 @@
       <c r="B56" s="29"/>
       <c r="C56" s="30"/>
       <c r="D56" s="30" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E56" s="30"/>
       <c r="F56" s="31"/>
@@ -3596,7 +3728,7 @@
     <row r="57" spans="1:16" ht="16.5">
       <c r="A57" s="22"/>
       <c r="B57" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C57" s="30"/>
       <c r="D57" s="30"/>
@@ -3611,7 +3743,7 @@
     </row>
     <row r="58" spans="1:16">
       <c r="A58" s="32" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B58" s="48"/>
       <c r="C58" s="29"/>
@@ -3623,8 +3755,8 @@
     </row>
     <row r="59" spans="1:16" ht="16.5">
       <c r="A59" s="22"/>
-      <c r="B59" s="29" t="s">
-        <v>39</v>
+      <c r="B59" s="66" t="s">
+        <v>50</v>
       </c>
       <c r="C59" s="22"/>
       <c r="D59" s="33"/>
@@ -3642,27 +3774,27 @@
       <c r="A61" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="B61" s="67" t="s">
-        <v>46</v>
-      </c>
-      <c r="C61" s="71"/>
-      <c r="D61" s="71"/>
-      <c r="E61" s="71"/>
-      <c r="F61" s="71"/>
-      <c r="G61" s="71"/>
-      <c r="H61" s="71"/>
-      <c r="I61" s="71"/>
+      <c r="B61" s="70" t="s">
+        <v>44</v>
+      </c>
+      <c r="C61" s="74"/>
+      <c r="D61" s="74"/>
+      <c r="E61" s="74"/>
+      <c r="F61" s="74"/>
+      <c r="G61" s="74"/>
+      <c r="H61" s="74"/>
+      <c r="I61" s="74"/>
     </row>
     <row r="62" spans="1:16">
       <c r="A62" s="32"/>
-      <c r="B62" s="71"/>
-      <c r="C62" s="71"/>
-      <c r="D62" s="71"/>
-      <c r="E62" s="71"/>
-      <c r="F62" s="71"/>
-      <c r="G62" s="71"/>
-      <c r="H62" s="71"/>
-      <c r="I62" s="71"/>
+      <c r="B62" s="74"/>
+      <c r="C62" s="74"/>
+      <c r="D62" s="74"/>
+      <c r="E62" s="74"/>
+      <c r="F62" s="74"/>
+      <c r="G62" s="74"/>
+      <c r="H62" s="74"/>
+      <c r="I62" s="74"/>
     </row>
     <row r="63" spans="1:16">
       <c r="A63" s="32"/>
@@ -3682,7 +3814,7 @@
     </row>
     <row r="67" spans="1:5" ht="16.5">
       <c r="A67" s="29" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="77" spans="1:5" ht="15.95" customHeight="1"/>

--- a/PhoenixCI/Excel_Template/40021.xlsx
+++ b/PhoenixCI/Excel_Template/40021.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KJSOFT\source\repos\buckblader\RekindlePhoenixCI\PhoenixCI\Excel_Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{961470DD-1719-4F2F-AB01-81A344C436F1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABB13C08-DE76-46A5-86CA-3D19FA159414}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3045" yWindow="-30" windowWidth="7650" windowHeight="7335" tabRatio="962" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -665,128 +665,12 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>變動幅度已達</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <family val="4"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">10% </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>之得調整標準，建議事項如「</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>SPAN</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>參數調整審核會議紀錄」</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>.</t>
-    </r>
+    <t>變動幅度已達 10% 之得調整標準，建議事項如「SPAN參數調整審核會議紀錄」.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>變動幅度已達 10% 之得調整標準，建議事項如「SPAN參數調整審核會議紀錄」.</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>變動幅度已達</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <family val="4"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">10% </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>之得調整標準，建議事項如「</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>SPAN</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>參數調整審核會議紀錄」</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>.</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -799,7 +683,7 @@
     <numFmt numFmtId="178" formatCode="0.0%"/>
     <numFmt numFmtId="179" formatCode="0.0%_);\(0.0%\);*-"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="20">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -929,17 +813,6 @@
       <family val="4"/>
       <charset val="136"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <name val="Times New Roman"/>
-      <family val="4"/>
-      <charset val="136"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="Times New Roman"/>
-      <family val="4"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -994,7 +867,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1180,11 +1053,8 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
@@ -1203,9 +1073,6 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1572,7 +1439,7 @@
   <dimension ref="A2:G54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1588,12 +1455,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:6">
-      <c r="D2" s="69"/>
-      <c r="E2" s="69"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="E3" s="67"/>
-      <c r="F3" s="68"/>
+      <c r="E3" s="66"/>
+      <c r="F3" s="67"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="53" t="s">
@@ -1809,7 +1676,7 @@
     <row r="23" spans="1:7">
       <c r="A23" s="5"/>
       <c r="B23" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C23" s="5"/>
       <c r="D23" s="10"/>
@@ -1886,7 +1753,7 @@
   <dimension ref="A1:P74"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M57" sqref="M57"/>
+      <selection activeCell="F1" sqref="F1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -1894,7 +1761,7 @@
     <col min="1" max="1" width="5.125" style="13" customWidth="1"/>
     <col min="2" max="2" width="18.125" style="13" customWidth="1"/>
     <col min="3" max="8" width="11.625" style="13" customWidth="1"/>
-    <col min="9" max="9" width="6.75" style="13" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="7.75" style="13" hidden="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="13"/>
   </cols>
   <sheetData>
@@ -1906,10 +1773,10 @@
         <v>8</v>
       </c>
       <c r="E1" s="53"/>
-      <c r="F1" s="65"/>
+      <c r="F1" s="73"/>
       <c r="G1" s="73"/>
       <c r="H1" s="73"/>
-      <c r="I1" s="73"/>
+      <c r="I1" s="65"/>
     </row>
     <row r="2" spans="1:9" ht="16.5">
       <c r="B2" s="15" t="s">
@@ -2747,19 +2614,19 @@
       <c r="A56" s="47" t="s">
         <v>37</v>
       </c>
-      <c r="B56" s="72"/>
-      <c r="C56" s="72"/>
-      <c r="D56" s="72"/>
-      <c r="E56" s="72"/>
-      <c r="F56" s="72"/>
-      <c r="G56" s="72"/>
-      <c r="H56" s="72"/>
+      <c r="B56" s="71"/>
+      <c r="C56" s="71"/>
+      <c r="D56" s="71"/>
+      <c r="E56" s="71"/>
+      <c r="F56" s="71"/>
+      <c r="G56" s="71"/>
+      <c r="H56" s="71"/>
       <c r="I56" s="46"/>
     </row>
     <row r="57" spans="1:16" ht="16.5">
       <c r="A57" s="22"/>
-      <c r="B57" s="66" t="s">
-        <v>50</v>
+      <c r="B57" s="6" t="s">
+        <v>51</v>
       </c>
       <c r="C57" s="22"/>
       <c r="D57" s="33"/>
@@ -2777,26 +2644,26 @@
       <c r="A59" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="B59" s="70" t="s">
+      <c r="B59" s="69" t="s">
         <v>38</v>
       </c>
-      <c r="C59" s="71"/>
-      <c r="D59" s="71"/>
-      <c r="E59" s="71"/>
-      <c r="F59" s="71"/>
-      <c r="G59" s="71"/>
-      <c r="H59" s="71"/>
+      <c r="C59" s="70"/>
+      <c r="D59" s="70"/>
+      <c r="E59" s="70"/>
+      <c r="F59" s="70"/>
+      <c r="G59" s="70"/>
+      <c r="H59" s="70"/>
       <c r="I59" s="45"/>
     </row>
     <row r="60" spans="1:16">
       <c r="A60" s="32"/>
-      <c r="B60" s="71"/>
-      <c r="C60" s="71"/>
-      <c r="D60" s="71"/>
-      <c r="E60" s="71"/>
-      <c r="F60" s="71"/>
-      <c r="G60" s="71"/>
-      <c r="H60" s="71"/>
+      <c r="B60" s="70"/>
+      <c r="C60" s="70"/>
+      <c r="D60" s="70"/>
+      <c r="E60" s="70"/>
+      <c r="F60" s="70"/>
+      <c r="G60" s="70"/>
+      <c r="H60" s="70"/>
       <c r="I60" s="45"/>
     </row>
     <row r="61" spans="1:16">
@@ -2814,7 +2681,7 @@
   <mergeCells count="3">
     <mergeCell ref="B59:H60"/>
     <mergeCell ref="B56:H56"/>
-    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="F1:H1"/>
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.19685039370078741" right="0.23622047244094491" top="1.0236220472440944" bottom="0.23622047244094491" header="0.27559055118110237" footer="0.23622047244094491"/>
@@ -2837,8 +2704,8 @@
   </sheetPr>
   <dimension ref="A1:P79"/>
   <sheetViews>
-    <sheetView topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="L59" sqref="L59"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K59" sqref="K59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -2864,9 +2731,9 @@
       </c>
       <c r="F1" s="49"/>
       <c r="G1" s="49"/>
-      <c r="H1" s="75"/>
-      <c r="I1" s="75"/>
-      <c r="J1" s="75"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="73"/>
+      <c r="J1" s="73"/>
     </row>
     <row r="2" spans="1:10" ht="16.5">
       <c r="B2" s="15" t="s">
@@ -3755,8 +3622,8 @@
     </row>
     <row r="59" spans="1:16" ht="16.5">
       <c r="A59" s="22"/>
-      <c r="B59" s="66" t="s">
-        <v>50</v>
+      <c r="B59" s="6" t="s">
+        <v>51</v>
       </c>
       <c r="C59" s="22"/>
       <c r="D59" s="33"/>
@@ -3774,27 +3641,27 @@
       <c r="A61" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="B61" s="70" t="s">
+      <c r="B61" s="69" t="s">
         <v>44</v>
       </c>
-      <c r="C61" s="74"/>
-      <c r="D61" s="74"/>
-      <c r="E61" s="74"/>
-      <c r="F61" s="74"/>
-      <c r="G61" s="74"/>
-      <c r="H61" s="74"/>
-      <c r="I61" s="74"/>
+      <c r="C61" s="72"/>
+      <c r="D61" s="72"/>
+      <c r="E61" s="72"/>
+      <c r="F61" s="72"/>
+      <c r="G61" s="72"/>
+      <c r="H61" s="72"/>
+      <c r="I61" s="72"/>
     </row>
     <row r="62" spans="1:16">
       <c r="A62" s="32"/>
-      <c r="B62" s="74"/>
-      <c r="C62" s="74"/>
-      <c r="D62" s="74"/>
-      <c r="E62" s="74"/>
-      <c r="F62" s="74"/>
-      <c r="G62" s="74"/>
-      <c r="H62" s="74"/>
-      <c r="I62" s="74"/>
+      <c r="B62" s="72"/>
+      <c r="C62" s="72"/>
+      <c r="D62" s="72"/>
+      <c r="E62" s="72"/>
+      <c r="F62" s="72"/>
+      <c r="G62" s="72"/>
+      <c r="H62" s="72"/>
+      <c r="I62" s="72"/>
     </row>
     <row r="63" spans="1:16">
       <c r="A63" s="32"/>

--- a/PhoenixCI/Excel_Template/40021.xlsx
+++ b/PhoenixCI/Excel_Template/40021.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KJSOFT\source\repos\buckblader\RekindlePhoenixCI\PhoenixCI\Excel_Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABB13C08-DE76-46A5-86CA-3D19FA159414}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2579B262-C7FD-4257-93C6-916AAA1E1017}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3045" yWindow="-30" windowWidth="7650" windowHeight="7335" tabRatio="962" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3045" yWindow="-30" windowWidth="7650" windowHeight="7335" tabRatio="962" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Span參數日狀況表(一)" sheetId="26" r:id="rId1"/>
@@ -867,7 +867,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1076,9 +1076,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1438,8 +1435,8 @@
   <sheetPr codeName="Sheet9"/>
   <dimension ref="A2:G54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1773,9 +1770,9 @@
         <v>8</v>
       </c>
       <c r="E1" s="53"/>
-      <c r="F1" s="73"/>
-      <c r="G1" s="73"/>
-      <c r="H1" s="73"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
       <c r="I1" s="65"/>
     </row>
     <row r="2" spans="1:9" ht="16.5">
@@ -2704,8 +2701,8 @@
   </sheetPr>
   <dimension ref="A1:P79"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K59" sqref="K59"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1:J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -2731,9 +2728,9 @@
       </c>
       <c r="F1" s="49"/>
       <c r="G1" s="49"/>
-      <c r="H1" s="73"/>
-      <c r="I1" s="73"/>
-      <c r="J1" s="73"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
     </row>
     <row r="2" spans="1:10" ht="16.5">
       <c r="B2" s="15" t="s">

--- a/PhoenixCI/Excel_Template/40021.xlsx
+++ b/PhoenixCI/Excel_Template/40021.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KJSOFT\source\repos\buckblader\RekindlePhoenixCI\PhoenixCI\Excel_Template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sandylo\Desktop\待更新程式\Excel_Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2579B262-C7FD-4257-93C6-916AAA1E1017}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3045" yWindow="-30" windowWidth="7650" windowHeight="7335" tabRatio="962" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3045" yWindow="-30" windowWidth="7650" windowHeight="7335" tabRatio="962" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Span參數日狀況表(一)" sheetId="26" r:id="rId1"/>
@@ -28,14 +27,7 @@
     <definedName name="XX_TEJ5">#REF!</definedName>
     <definedName name="XX_TEJ6">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -665,25 +657,58 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>變動幅度已達 10% 之得調整標準，建議事項如「SPAN參數調整審核會議紀錄」.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>變動幅度已達 10% 之得調整標準，建議事項如「SPAN參數調整審核會議紀錄」.</t>
+    <t>變動幅度已達 10% 之得調整標準，建議事項如「保證金調整審核會議紀錄」.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>變動幅度已達</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 10% </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>之得調整標準，建議事項如「保證金調整審核會議紀錄」</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>.</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="#,##0_ "/>
     <numFmt numFmtId="177" formatCode="0.00_ "/>
     <numFmt numFmtId="178" formatCode="0.0%"/>
     <numFmt numFmtId="179" formatCode="0.0%_);\(0.0%\);*-"/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1054,13 +1079,10 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
@@ -1076,14 +1098,17 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="一般 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="百分比 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="百分比 3" xfId="4" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="一般 2" xfId="1"/>
+    <cellStyle name="一般 3" xfId="2"/>
+    <cellStyle name="百分比 2" xfId="3"/>
+    <cellStyle name="百分比 3" xfId="4"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1187,23 +1212,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1239,23 +1247,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1431,15 +1422,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet9"/>
   <dimension ref="A2:G54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:E2"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.125" style="53" customWidth="1"/>
     <col min="2" max="2" width="18" style="53" customWidth="1"/>
@@ -1451,15 +1442,15 @@
     <col min="8" max="16384" width="9" style="53"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6">
-      <c r="D2" s="68"/>
-      <c r="E2" s="68"/>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="E3" s="66"/>
-      <c r="F3" s="67"/>
-    </row>
-    <row r="4" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E3" s="65"/>
+      <c r="F3" s="66"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="53" t="s">
         <v>4</v>
       </c>
@@ -1469,15 +1460,15 @@
       <c r="C4" s="3"/>
       <c r="D4" s="55"/>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B5" s="54" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B6" s="54"/>
     </row>
-    <row r="7" spans="1:6" ht="33">
+    <row r="7" spans="1:6" ht="33" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>13</v>
       </c>
@@ -1491,7 +1482,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="25.5" customHeight="1">
+    <row r="8" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
         <v>17</v>
       </c>
@@ -1507,7 +1498,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="25.5" customHeight="1">
+    <row r="9" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
         <v>18</v>
       </c>
@@ -1523,7 +1514,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="25.5" customHeight="1">
+    <row r="10" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
         <v>19</v>
       </c>
@@ -1539,7 +1530,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="25.5" customHeight="1">
+    <row r="11" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
         <v>20</v>
       </c>
@@ -1555,7 +1546,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="25.5" customHeight="1">
+    <row r="12" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
         <v>21</v>
       </c>
@@ -1571,13 +1562,13 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="25.5" hidden="1" customHeight="1">
+    <row r="13" spans="1:6" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="2"/>
       <c r="C13" s="36"/>
       <c r="D13" s="4"/>
       <c r="E13" s="36"/>
     </row>
-    <row r="14" spans="1:6" ht="25.5" customHeight="1">
+    <row r="14" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="64" t="s">
         <v>48</v>
       </c>
@@ -1593,7 +1584,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="25.5" customHeight="1">
+    <row r="15" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="64" t="s">
         <v>49</v>
       </c>
@@ -1609,13 +1600,13 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>22</v>
       </c>
@@ -1628,7 +1619,7 @@
       <c r="F18" s="9"/>
       <c r="G18" s="9"/>
     </row>
-    <row r="19" spans="1:7" s="43" customFormat="1">
+    <row r="19" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="38" t="s">
         <v>24</v>
       </c>
@@ -1641,7 +1632,7 @@
       <c r="F19" s="42"/>
       <c r="G19" s="42"/>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="5"/>
       <c r="B20" s="7" t="s">
         <v>26</v>
@@ -1652,14 +1643,14 @@
       <c r="F20" s="6"/>
       <c r="G20" s="5"/>
     </row>
-    <row r="21" spans="1:7" customFormat="1">
+    <row r="21" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="12"/>
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
     </row>
-    <row r="22" spans="1:7" s="44" customFormat="1">
+    <row r="22" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="40">
         <v>2</v>
       </c>
@@ -1670,9 +1661,9 @@
       <c r="D22" s="41"/>
       <c r="E22" s="41"/>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="5"/>
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="6" t="s">
         <v>50</v>
       </c>
       <c r="C23" s="5"/>
@@ -1681,14 +1672,14 @@
       <c r="F23" s="6"/>
       <c r="G23" s="5"/>
     </row>
-    <row r="24" spans="1:7" customFormat="1">
+    <row r="24" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="5"/>
       <c r="B24" s="6"/>
       <c r="C24" s="5"/>
       <c r="D24" s="10"/>
       <c r="E24" s="11"/>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="5"/>
       <c r="B25" s="5"/>
       <c r="C25" s="10"/>
@@ -1697,7 +1688,7 @@
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
         <v>27</v>
       </c>
@@ -1707,7 +1698,7 @@
       <c r="E26" s="12"/>
       <c r="F26" s="5"/>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="12"/>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
@@ -1716,17 +1707,16 @@
       <c r="F27" s="12"/>
       <c r="G27" s="12"/>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="5"/>
       <c r="F28" s="5"/>
       <c r="G28" s="5"/>
     </row>
-    <row r="52" ht="15.95" customHeight="1"/>
-    <row r="53" ht="15.95" customHeight="1"/>
-    <row r="54" ht="15.95" customHeight="1"/>
+    <row r="52" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="53" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="54" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="E3:F3"/>
+  <mergeCells count="1">
     <mergeCell ref="D2:E2"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
@@ -1745,42 +1735,41 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet10"/>
   <dimension ref="A1:P74"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:H1"/>
+    <sheetView topLeftCell="A32" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B57" sqref="B57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.125" style="13" customWidth="1"/>
     <col min="2" max="2" width="18.125" style="13" customWidth="1"/>
     <col min="3" max="8" width="11.625" style="13" customWidth="1"/>
-    <col min="9" max="9" width="7.75" style="13" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="6.75" style="13" hidden="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="46.5" customHeight="1">
+    <row r="1" spans="1:9" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>28</v>
       </c>
       <c r="B1" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="53"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
       <c r="I1" s="65"/>
     </row>
-    <row r="2" spans="1:9" ht="16.5">
+    <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B2" s="15" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15.95" customHeight="1">
+    <row r="3" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="16" t="s">
         <v>9</v>
       </c>
@@ -1806,7 +1795,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B4" s="17" t="s">
         <v>0</v>
       </c>
@@ -1820,7 +1809,7 @@
       <c r="H4" s="21"/>
       <c r="I4" s="50"/>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B5" s="18" t="s">
         <v>1</v>
       </c>
@@ -1836,7 +1825,7 @@
       <c r="H5" s="21"/>
       <c r="I5" s="50"/>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="22"/>
       <c r="B6" s="18" t="s">
         <v>2</v>
@@ -1855,7 +1844,7 @@
       <c r="H6" s="21"/>
       <c r="I6" s="50"/>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="22"/>
       <c r="B7" s="18" t="s">
         <v>3</v>
@@ -1876,7 +1865,7 @@
       <c r="H7" s="21"/>
       <c r="I7" s="50"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B8" s="23" t="s">
         <v>6</v>
       </c>
@@ -1898,7 +1887,7 @@
       <c r="H8" s="21"/>
       <c r="I8" s="50"/>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="22"/>
       <c r="B9" s="23" t="s">
         <v>7</v>
@@ -1923,7 +1912,7 @@
       </c>
       <c r="I9" s="50"/>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="22"/>
       <c r="B10" s="24"/>
       <c r="C10" s="25"/>
@@ -1934,7 +1923,7 @@
       <c r="H10" s="56"/>
       <c r="I10" s="52"/>
     </row>
-    <row r="11" spans="1:9" ht="16.5">
+    <row r="11" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A11" s="22"/>
       <c r="B11" s="57" t="s">
         <v>47</v>
@@ -1949,7 +1938,7 @@
       <c r="H11" s="56"/>
       <c r="I11" s="52"/>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="22"/>
       <c r="B12" s="58" t="s">
         <v>45</v>
@@ -1964,7 +1953,7 @@
       <c r="H12" s="56"/>
       <c r="I12" s="52"/>
     </row>
-    <row r="13" spans="1:9" hidden="1">
+    <row r="13" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="22"/>
       <c r="B13" s="24"/>
       <c r="C13" s="25"/>
@@ -1975,7 +1964,7 @@
       <c r="H13" s="56"/>
       <c r="I13" s="52"/>
     </row>
-    <row r="14" spans="1:9" hidden="1">
+    <row r="14" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="22"/>
       <c r="B14" s="24"/>
       <c r="C14" s="25"/>
@@ -1986,7 +1975,7 @@
       <c r="H14" s="56"/>
       <c r="I14" s="52"/>
     </row>
-    <row r="15" spans="1:9" hidden="1">
+    <row r="15" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="22"/>
       <c r="B15" s="24"/>
       <c r="C15" s="25"/>
@@ -1997,7 +1986,7 @@
       <c r="H15" s="56"/>
       <c r="I15" s="52"/>
     </row>
-    <row r="16" spans="1:9" hidden="1">
+    <row r="16" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="22"/>
       <c r="B16" s="24"/>
       <c r="C16" s="25"/>
@@ -2008,7 +1997,7 @@
       <c r="H16" s="56"/>
       <c r="I16" s="52"/>
     </row>
-    <row r="17" spans="1:9" hidden="1">
+    <row r="17" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="22"/>
       <c r="B17" s="24"/>
       <c r="C17" s="25"/>
@@ -2019,7 +2008,7 @@
       <c r="H17" s="56"/>
       <c r="I17" s="52"/>
     </row>
-    <row r="18" spans="1:9" hidden="1">
+    <row r="18" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="22"/>
       <c r="B18" s="24"/>
       <c r="C18" s="25"/>
@@ -2030,7 +2019,7 @@
       <c r="H18" s="56"/>
       <c r="I18" s="52"/>
     </row>
-    <row r="19" spans="1:9" hidden="1">
+    <row r="19" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="22"/>
       <c r="B19" s="24"/>
       <c r="C19" s="25"/>
@@ -2041,7 +2030,7 @@
       <c r="H19" s="56"/>
       <c r="I19" s="51"/>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="22"/>
       <c r="B20" s="24"/>
       <c r="C20" s="25"/>
@@ -2052,7 +2041,7 @@
       <c r="H20" s="56"/>
       <c r="I20" s="51"/>
     </row>
-    <row r="21" spans="1:9" ht="16.5">
+    <row r="21" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A21" s="22"/>
       <c r="B21" s="15" t="s">
         <v>31</v>
@@ -2065,7 +2054,7 @@
       <c r="H21" s="56"/>
       <c r="I21" s="51"/>
     </row>
-    <row r="22" spans="1:9" ht="16.5">
+    <row r="22" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A22" s="22"/>
       <c r="B22" s="16" t="s">
         <v>9</v>
@@ -2092,7 +2081,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="22"/>
       <c r="B23" s="17" t="s">
         <v>0</v>
@@ -2107,7 +2096,7 @@
       <c r="H23" s="21"/>
       <c r="I23" s="50"/>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="22"/>
       <c r="B24" s="18" t="s">
         <v>1</v>
@@ -2125,7 +2114,7 @@
       <c r="H24" s="21"/>
       <c r="I24" s="50"/>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="22"/>
       <c r="B25" s="18" t="s">
         <v>2</v>
@@ -2146,7 +2135,7 @@
       <c r="H25" s="21"/>
       <c r="I25" s="50"/>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="22"/>
       <c r="B26" s="18" t="s">
         <v>3</v>
@@ -2170,7 +2159,7 @@
       <c r="H26" s="21"/>
       <c r="I26" s="50"/>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="22"/>
       <c r="B27" s="23" t="s">
         <v>6</v>
@@ -2197,7 +2186,7 @@
       <c r="H27" s="21"/>
       <c r="I27" s="50"/>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="22"/>
       <c r="B28" s="23" t="s">
         <v>7</v>
@@ -2230,7 +2219,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="22"/>
       <c r="B29" s="24"/>
       <c r="C29" s="25"/>
@@ -2241,7 +2230,7 @@
       <c r="H29" s="56"/>
       <c r="I29" s="52"/>
     </row>
-    <row r="30" spans="1:9" ht="16.5">
+    <row r="30" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A30" s="22"/>
       <c r="B30" s="61" t="s">
         <v>47</v>
@@ -2256,7 +2245,7 @@
       <c r="H30" s="56"/>
       <c r="I30" s="52"/>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="22"/>
       <c r="B31" s="62" t="s">
         <v>45</v>
@@ -2272,7 +2261,7 @@
       <c r="H31" s="56"/>
       <c r="I31" s="52"/>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="22"/>
       <c r="B32" s="24"/>
       <c r="C32" s="25"/>
@@ -2283,7 +2272,7 @@
       <c r="H32" s="56"/>
       <c r="I32" s="52"/>
     </row>
-    <row r="33" spans="1:9" hidden="1">
+    <row r="33" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="22"/>
       <c r="B33" s="24"/>
       <c r="C33" s="25"/>
@@ -2294,7 +2283,7 @@
       <c r="H33" s="56"/>
       <c r="I33" s="52"/>
     </row>
-    <row r="34" spans="1:9" hidden="1">
+    <row r="34" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="22"/>
       <c r="B34" s="24"/>
       <c r="C34" s="25"/>
@@ -2305,7 +2294,7 @@
       <c r="H34" s="56"/>
       <c r="I34" s="52"/>
     </row>
-    <row r="35" spans="1:9" hidden="1">
+    <row r="35" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="22"/>
       <c r="B35" s="24"/>
       <c r="C35" s="25"/>
@@ -2316,7 +2305,7 @@
       <c r="H35" s="56"/>
       <c r="I35" s="52"/>
     </row>
-    <row r="36" spans="1:9" hidden="1">
+    <row r="36" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="22"/>
       <c r="B36" s="24"/>
       <c r="C36" s="25"/>
@@ -2327,7 +2316,7 @@
       <c r="H36" s="56"/>
       <c r="I36" s="52"/>
     </row>
-    <row r="37" spans="1:9" hidden="1">
+    <row r="37" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="22"/>
       <c r="B37" s="24"/>
       <c r="C37" s="25"/>
@@ -2338,7 +2327,7 @@
       <c r="H37" s="56"/>
       <c r="I37" s="51"/>
     </row>
-    <row r="38" spans="1:9" hidden="1">
+    <row r="38" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="22"/>
       <c r="B38" s="24"/>
       <c r="C38" s="25"/>
@@ -2349,7 +2338,7 @@
       <c r="H38" s="56"/>
       <c r="I38" s="51"/>
     </row>
-    <row r="39" spans="1:9" hidden="1">
+    <row r="39" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="22"/>
       <c r="B39" s="24"/>
       <c r="C39" s="25"/>
@@ -2360,7 +2349,7 @@
       <c r="H39" s="56"/>
       <c r="I39" s="51"/>
     </row>
-    <row r="40" spans="1:9" ht="16.5">
+    <row r="40" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A40" s="22"/>
       <c r="B40" s="15" t="s">
         <v>32</v>
@@ -2373,7 +2362,7 @@
       <c r="H40" s="56"/>
       <c r="I40" s="51"/>
     </row>
-    <row r="41" spans="1:9" ht="16.5">
+    <row r="41" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A41" s="22"/>
       <c r="B41" s="15" t="s">
         <v>33</v>
@@ -2386,7 +2375,7 @@
       <c r="H41" s="56"/>
       <c r="I41" s="51"/>
     </row>
-    <row r="42" spans="1:9" ht="16.5">
+    <row r="42" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A42" s="22"/>
       <c r="B42" s="16" t="s">
         <v>9</v>
@@ -2413,7 +2402,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="43" spans="1:9">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="22"/>
       <c r="B43" s="17" t="s">
         <v>0</v>
@@ -2426,7 +2415,7 @@
       <c r="H43" s="21"/>
       <c r="I43" s="50"/>
     </row>
-    <row r="44" spans="1:9">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="22"/>
       <c r="B44" s="18" t="s">
         <v>1</v>
@@ -2442,7 +2431,7 @@
       <c r="H44" s="21"/>
       <c r="I44" s="50"/>
     </row>
-    <row r="45" spans="1:9">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="22"/>
       <c r="B45" s="18" t="s">
         <v>2</v>
@@ -2461,7 +2450,7 @@
       <c r="H45" s="21"/>
       <c r="I45" s="50"/>
     </row>
-    <row r="46" spans="1:9">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="22"/>
       <c r="B46" s="18" t="s">
         <v>3</v>
@@ -2483,7 +2472,7 @@
       <c r="H46" s="21"/>
       <c r="I46" s="50"/>
     </row>
-    <row r="47" spans="1:9">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="28"/>
       <c r="B47" s="23" t="s">
         <v>6</v>
@@ -2508,7 +2497,7 @@
       <c r="H47" s="21"/>
       <c r="I47" s="50"/>
     </row>
-    <row r="48" spans="1:9">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="28"/>
       <c r="B48" s="23" t="s">
         <v>7</v>
@@ -2539,10 +2528,10 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="49" spans="1:16" ht="15.95" customHeight="1">
+    <row r="49" spans="1:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="32"/>
     </row>
-    <row r="50" spans="1:16" ht="15.95" customHeight="1">
+    <row r="50" spans="1:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="32"/>
       <c r="B50" s="57" t="s">
         <v>47</v>
@@ -2551,7 +2540,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="51" spans="1:16" ht="15.95" customHeight="1">
+    <row r="51" spans="1:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="32"/>
       <c r="B51" s="58" t="s">
         <v>45</v>
@@ -2561,7 +2550,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="52" spans="1:16">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A52" s="28"/>
       <c r="B52" s="24"/>
       <c r="C52" s="25"/>
@@ -2571,7 +2560,7 @@
       <c r="G52" s="25"/>
       <c r="H52" s="56"/>
     </row>
-    <row r="53" spans="1:16" ht="16.5">
+    <row r="53" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A53" s="22" t="s">
         <v>34</v>
       </c>
@@ -2583,7 +2572,7 @@
       <c r="E53" s="30"/>
       <c r="F53" s="31"/>
     </row>
-    <row r="54" spans="1:16">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A54" s="22"/>
       <c r="B54" s="29"/>
       <c r="C54" s="30"/>
@@ -2591,7 +2580,7 @@
       <c r="E54" s="30"/>
       <c r="F54" s="31"/>
     </row>
-    <row r="55" spans="1:16" ht="16.5">
+    <row r="55" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A55" s="22"/>
       <c r="B55" s="6" t="s">
         <v>36</v>
@@ -2607,29 +2596,29 @@
       <c r="O55" s="30"/>
       <c r="P55" s="31"/>
     </row>
-    <row r="56" spans="1:16" ht="31.5" customHeight="1">
+    <row r="56" spans="1:16" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="47" t="s">
         <v>37</v>
       </c>
-      <c r="B56" s="71"/>
-      <c r="C56" s="71"/>
-      <c r="D56" s="71"/>
-      <c r="E56" s="71"/>
-      <c r="F56" s="71"/>
-      <c r="G56" s="71"/>
-      <c r="H56" s="71"/>
+      <c r="B56" s="70"/>
+      <c r="C56" s="70"/>
+      <c r="D56" s="70"/>
+      <c r="E56" s="70"/>
+      <c r="F56" s="70"/>
+      <c r="G56" s="70"/>
+      <c r="H56" s="70"/>
       <c r="I56" s="46"/>
     </row>
-    <row r="57" spans="1:16" ht="16.5">
+    <row r="57" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A57" s="22"/>
-      <c r="B57" s="6" t="s">
+      <c r="B57" s="29" t="s">
         <v>51</v>
       </c>
       <c r="C57" s="22"/>
       <c r="D57" s="33"/>
       <c r="E57" s="34"/>
     </row>
-    <row r="58" spans="1:16">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A58" s="22"/>
       <c r="B58" s="29"/>
       <c r="C58" s="30"/>
@@ -2637,43 +2626,43 @@
       <c r="E58" s="30"/>
       <c r="F58" s="31"/>
     </row>
-    <row r="59" spans="1:16">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A59" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="B59" s="69" t="s">
+      <c r="B59" s="68" t="s">
         <v>38</v>
       </c>
-      <c r="C59" s="70"/>
-      <c r="D59" s="70"/>
-      <c r="E59" s="70"/>
-      <c r="F59" s="70"/>
-      <c r="G59" s="70"/>
-      <c r="H59" s="70"/>
+      <c r="C59" s="69"/>
+      <c r="D59" s="69"/>
+      <c r="E59" s="69"/>
+      <c r="F59" s="69"/>
+      <c r="G59" s="69"/>
+      <c r="H59" s="69"/>
       <c r="I59" s="45"/>
     </row>
-    <row r="60" spans="1:16">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A60" s="32"/>
-      <c r="B60" s="70"/>
-      <c r="C60" s="70"/>
-      <c r="D60" s="70"/>
-      <c r="E60" s="70"/>
-      <c r="F60" s="70"/>
-      <c r="G60" s="70"/>
-      <c r="H60" s="70"/>
+      <c r="B60" s="69"/>
+      <c r="C60" s="69"/>
+      <c r="D60" s="69"/>
+      <c r="E60" s="69"/>
+      <c r="F60" s="69"/>
+      <c r="G60" s="69"/>
+      <c r="H60" s="69"/>
       <c r="I60" s="45"/>
     </row>
-    <row r="61" spans="1:16">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A61" s="22"/>
     </row>
-    <row r="62" spans="1:16" ht="16.5">
+    <row r="62" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A62" s="29" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="72" ht="15.95" customHeight="1"/>
-    <row r="73" ht="15.95" customHeight="1"/>
-    <row r="74" ht="15.95" customHeight="1"/>
+    <row r="72" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="73" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="74" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="B59:H60"/>
@@ -2695,17 +2684,17 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet11">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:P79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:J1"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.125" style="13" customWidth="1"/>
     <col min="2" max="2" width="13.375" style="13" customWidth="1"/>
@@ -2719,7 +2708,7 @@
     <col min="11" max="16384" width="9" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="43.5" customHeight="1">
+    <row r="1" spans="1:10" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>28</v>
       </c>
@@ -2728,16 +2717,16 @@
       </c>
       <c r="F1" s="49"/>
       <c r="G1" s="49"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
-    </row>
-    <row r="2" spans="1:10" ht="16.5">
+      <c r="H1" s="72"/>
+      <c r="I1" s="72"/>
+      <c r="J1" s="72"/>
+    </row>
+    <row r="2" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B2" s="15" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15.95" customHeight="1">
+    <row r="3" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="16" t="s">
         <v>9</v>
       </c>
@@ -2763,7 +2752,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B4" s="17" t="s">
         <v>0</v>
       </c>
@@ -2777,7 +2766,7 @@
       <c r="H4" s="21"/>
       <c r="I4" s="21"/>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B5" s="18" t="s">
         <v>1</v>
       </c>
@@ -2793,7 +2782,7 @@
       <c r="H5" s="21"/>
       <c r="I5" s="21"/>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="22"/>
       <c r="B6" s="18" t="s">
         <v>2</v>
@@ -2812,7 +2801,7 @@
       <c r="H6" s="21"/>
       <c r="I6" s="21"/>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="22"/>
       <c r="B7" s="18" t="s">
         <v>3</v>
@@ -2833,7 +2822,7 @@
       <c r="H7" s="21"/>
       <c r="I7" s="21"/>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B8" s="23" t="s">
         <v>6</v>
       </c>
@@ -2855,7 +2844,7 @@
       <c r="H8" s="21"/>
       <c r="I8" s="21"/>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="22"/>
       <c r="B9" s="23" t="s">
         <v>7</v>
@@ -2880,7 +2869,7 @@
       </c>
       <c r="I9" s="21"/>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="22"/>
       <c r="B10" s="24"/>
       <c r="C10" s="25"/>
@@ -2891,7 +2880,7 @@
       <c r="H10" s="56"/>
       <c r="I10" s="56"/>
     </row>
-    <row r="11" spans="1:10" ht="16.5">
+    <row r="11" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A11" s="22"/>
       <c r="B11" s="57" t="s">
         <v>47</v>
@@ -2906,7 +2895,7 @@
       <c r="H11" s="56"/>
       <c r="I11" s="56"/>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="22"/>
       <c r="B12" s="58" t="s">
         <v>45</v>
@@ -2921,7 +2910,7 @@
       <c r="H12" s="56"/>
       <c r="I12" s="56"/>
     </row>
-    <row r="13" spans="1:10" ht="15.6" hidden="1" customHeight="1">
+    <row r="13" spans="1:10" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="22"/>
       <c r="B13" s="24"/>
       <c r="C13" s="25"/>
@@ -2932,7 +2921,7 @@
       <c r="H13" s="56"/>
       <c r="I13" s="56"/>
     </row>
-    <row r="14" spans="1:10" ht="15.6" hidden="1" customHeight="1">
+    <row r="14" spans="1:10" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="22"/>
       <c r="B14" s="24"/>
       <c r="C14" s="25"/>
@@ -2943,7 +2932,7 @@
       <c r="H14" s="56"/>
       <c r="I14" s="56"/>
     </row>
-    <row r="15" spans="1:10" ht="15.6" hidden="1" customHeight="1">
+    <row r="15" spans="1:10" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="22"/>
       <c r="B15" s="24"/>
       <c r="C15" s="25"/>
@@ -2954,7 +2943,7 @@
       <c r="H15" s="56"/>
       <c r="I15" s="56"/>
     </row>
-    <row r="16" spans="1:10" ht="15.6" hidden="1" customHeight="1">
+    <row r="16" spans="1:10" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="22"/>
       <c r="B16" s="24"/>
       <c r="C16" s="25"/>
@@ -2965,7 +2954,7 @@
       <c r="H16" s="56"/>
       <c r="I16" s="56"/>
     </row>
-    <row r="17" spans="1:9" ht="15.6" hidden="1" customHeight="1">
+    <row r="17" spans="1:9" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="22"/>
       <c r="B17" s="24"/>
       <c r="C17" s="25"/>
@@ -2976,7 +2965,7 @@
       <c r="H17" s="56"/>
       <c r="I17" s="56"/>
     </row>
-    <row r="18" spans="1:9" ht="15.6" hidden="1" customHeight="1">
+    <row r="18" spans="1:9" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="22"/>
       <c r="B18" s="24"/>
       <c r="C18" s="25"/>
@@ -2987,7 +2976,7 @@
       <c r="H18" s="56"/>
       <c r="I18" s="56"/>
     </row>
-    <row r="19" spans="1:9" ht="15.6" hidden="1" customHeight="1">
+    <row r="19" spans="1:9" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="22"/>
       <c r="B19" s="24"/>
       <c r="C19" s="25"/>
@@ -2998,7 +2987,7 @@
       <c r="H19" s="56"/>
       <c r="I19" s="56"/>
     </row>
-    <row r="20" spans="1:9" ht="15.6" hidden="1" customHeight="1">
+    <row r="20" spans="1:9" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="22"/>
       <c r="B20" s="24"/>
       <c r="C20" s="25"/>
@@ -3009,7 +2998,7 @@
       <c r="H20" s="56"/>
       <c r="I20" s="56"/>
     </row>
-    <row r="21" spans="1:9" ht="15.6" hidden="1" customHeight="1">
+    <row r="21" spans="1:9" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="22"/>
       <c r="B21" s="24"/>
       <c r="C21" s="25"/>
@@ -3020,7 +3009,7 @@
       <c r="H21" s="56"/>
       <c r="I21" s="56"/>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="22"/>
       <c r="B22" s="24"/>
       <c r="C22" s="25"/>
@@ -3031,7 +3020,7 @@
       <c r="H22" s="56"/>
       <c r="I22" s="56"/>
     </row>
-    <row r="23" spans="1:9" ht="16.5">
+    <row r="23" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A23" s="22"/>
       <c r="B23" s="15" t="s">
         <v>42</v>
@@ -3044,7 +3033,7 @@
       <c r="H23" s="56"/>
       <c r="I23" s="56"/>
     </row>
-    <row r="24" spans="1:9" ht="16.5">
+    <row r="24" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A24" s="22"/>
       <c r="B24" s="16" t="s">
         <v>9</v>
@@ -3071,7 +3060,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="22"/>
       <c r="B25" s="17" t="s">
         <v>0</v>
@@ -3086,7 +3075,7 @@
       <c r="H25" s="21"/>
       <c r="I25" s="21"/>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="22"/>
       <c r="B26" s="18" t="s">
         <v>1</v>
@@ -3104,7 +3093,7 @@
       <c r="H26" s="21"/>
       <c r="I26" s="21"/>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="22"/>
       <c r="B27" s="18" t="s">
         <v>2</v>
@@ -3125,7 +3114,7 @@
       <c r="H27" s="21"/>
       <c r="I27" s="21"/>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="22"/>
       <c r="B28" s="18" t="s">
         <v>3</v>
@@ -3149,7 +3138,7 @@
       <c r="H28" s="21"/>
       <c r="I28" s="21"/>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="22"/>
       <c r="B29" s="23" t="s">
         <v>6</v>
@@ -3176,7 +3165,7 @@
       <c r="H29" s="21"/>
       <c r="I29" s="21"/>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="22"/>
       <c r="B30" s="23" t="s">
         <v>7</v>
@@ -3209,7 +3198,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="22"/>
       <c r="B31" s="24"/>
       <c r="C31" s="25"/>
@@ -3220,7 +3209,7 @@
       <c r="H31" s="56"/>
       <c r="I31" s="56"/>
     </row>
-    <row r="32" spans="1:9" ht="16.5">
+    <row r="32" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A32" s="22"/>
       <c r="B32" s="57" t="s">
         <v>47</v>
@@ -3235,7 +3224,7 @@
       <c r="H32" s="56"/>
       <c r="I32" s="56"/>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="22"/>
       <c r="B33" s="58" t="s">
         <v>45</v>
@@ -3251,7 +3240,7 @@
       <c r="H33" s="56"/>
       <c r="I33" s="56"/>
     </row>
-    <row r="34" spans="1:9" hidden="1">
+    <row r="34" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="22"/>
       <c r="B34" s="24"/>
       <c r="C34" s="25"/>
@@ -3262,7 +3251,7 @@
       <c r="H34" s="56"/>
       <c r="I34" s="56"/>
     </row>
-    <row r="35" spans="1:9" hidden="1">
+    <row r="35" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="22"/>
       <c r="B35" s="24"/>
       <c r="C35" s="25"/>
@@ -3273,7 +3262,7 @@
       <c r="H35" s="56"/>
       <c r="I35" s="56"/>
     </row>
-    <row r="36" spans="1:9" hidden="1">
+    <row r="36" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="22"/>
       <c r="B36" s="24"/>
       <c r="C36" s="25"/>
@@ -3284,7 +3273,7 @@
       <c r="H36" s="56"/>
       <c r="I36" s="56"/>
     </row>
-    <row r="37" spans="1:9" hidden="1">
+    <row r="37" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="22"/>
       <c r="B37" s="24"/>
       <c r="C37" s="25"/>
@@ -3295,7 +3284,7 @@
       <c r="H37" s="56"/>
       <c r="I37" s="56"/>
     </row>
-    <row r="38" spans="1:9" hidden="1">
+    <row r="38" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="22"/>
       <c r="B38" s="24"/>
       <c r="C38" s="25"/>
@@ -3306,7 +3295,7 @@
       <c r="H38" s="56"/>
       <c r="I38" s="56"/>
     </row>
-    <row r="39" spans="1:9" hidden="1">
+    <row r="39" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="22"/>
       <c r="B39" s="24"/>
       <c r="C39" s="25"/>
@@ -3317,7 +3306,7 @@
       <c r="H39" s="56"/>
       <c r="I39" s="56"/>
     </row>
-    <row r="40" spans="1:9" hidden="1">
+    <row r="40" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="22"/>
       <c r="B40" s="24"/>
       <c r="C40" s="25"/>
@@ -3328,7 +3317,7 @@
       <c r="H40" s="56"/>
       <c r="I40" s="56"/>
     </row>
-    <row r="41" spans="1:9">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="22"/>
       <c r="B41" s="24"/>
       <c r="C41" s="25"/>
@@ -3339,7 +3328,7 @@
       <c r="H41" s="56"/>
       <c r="I41" s="56"/>
     </row>
-    <row r="42" spans="1:9" ht="16.5">
+    <row r="42" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A42" s="22"/>
       <c r="B42" s="15" t="s">
         <v>32</v>
@@ -3352,7 +3341,7 @@
       <c r="H42" s="56"/>
       <c r="I42" s="56"/>
     </row>
-    <row r="43" spans="1:9" ht="16.5">
+    <row r="43" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A43" s="22"/>
       <c r="B43" s="15" t="s">
         <v>10</v>
@@ -3365,7 +3354,7 @@
       <c r="H43" s="56"/>
       <c r="I43" s="56"/>
     </row>
-    <row r="44" spans="1:9" ht="16.5">
+    <row r="44" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A44" s="22"/>
       <c r="B44" s="16" t="s">
         <v>9</v>
@@ -3392,7 +3381,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="45" spans="1:9">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="22"/>
       <c r="B45" s="17" t="s">
         <v>0</v>
@@ -3405,7 +3394,7 @@
       <c r="H45" s="27"/>
       <c r="I45" s="27"/>
     </row>
-    <row r="46" spans="1:9">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="22"/>
       <c r="B46" s="18" t="s">
         <v>1</v>
@@ -3421,7 +3410,7 @@
       <c r="H46" s="27"/>
       <c r="I46" s="27"/>
     </row>
-    <row r="47" spans="1:9">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="22"/>
       <c r="B47" s="18" t="s">
         <v>2</v>
@@ -3440,7 +3429,7 @@
       <c r="H47" s="27"/>
       <c r="I47" s="27"/>
     </row>
-    <row r="48" spans="1:9">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="22"/>
       <c r="B48" s="18" t="s">
         <v>3</v>
@@ -3462,7 +3451,7 @@
       <c r="H48" s="27"/>
       <c r="I48" s="27"/>
     </row>
-    <row r="49" spans="1:16">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49" s="28"/>
       <c r="B49" s="23" t="s">
         <v>6</v>
@@ -3487,7 +3476,7 @@
       <c r="H49" s="27"/>
       <c r="I49" s="27"/>
     </row>
-    <row r="50" spans="1:16">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A50" s="28"/>
       <c r="B50" s="23" t="s">
         <v>7</v>
@@ -3518,7 +3507,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="51" spans="1:16">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A51" s="28"/>
       <c r="B51" s="24"/>
       <c r="C51" s="25"/>
@@ -3528,7 +3517,7 @@
       <c r="G51" s="25"/>
       <c r="H51" s="56"/>
     </row>
-    <row r="52" spans="1:16" ht="16.5">
+    <row r="52" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A52" s="28"/>
       <c r="B52" s="57" t="s">
         <v>47</v>
@@ -3542,7 +3531,7 @@
       <c r="G52" s="25"/>
       <c r="H52" s="56"/>
     </row>
-    <row r="53" spans="1:16">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A53" s="28"/>
       <c r="B53" s="58" t="s">
         <v>45</v>
@@ -3557,7 +3546,7 @@
       <c r="G53" s="25"/>
       <c r="H53" s="56"/>
     </row>
-    <row r="54" spans="1:16">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A54" s="28"/>
       <c r="B54" s="24"/>
       <c r="C54" s="25"/>
@@ -3567,7 +3556,7 @@
       <c r="G54" s="25"/>
       <c r="H54" s="56"/>
     </row>
-    <row r="55" spans="1:16" ht="16.5">
+    <row r="55" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A55" s="22" t="s">
         <v>34</v>
       </c>
@@ -3579,7 +3568,7 @@
       <c r="E55" s="30"/>
       <c r="F55" s="31"/>
     </row>
-    <row r="56" spans="1:16">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A56" s="22"/>
       <c r="B56" s="29"/>
       <c r="C56" s="30"/>
@@ -3589,7 +3578,7 @@
       <c r="E56" s="30"/>
       <c r="F56" s="31"/>
     </row>
-    <row r="57" spans="1:16" ht="16.5">
+    <row r="57" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A57" s="22"/>
       <c r="B57" s="6" t="s">
         <v>36</v>
@@ -3605,7 +3594,7 @@
       <c r="O57" s="30"/>
       <c r="P57" s="31"/>
     </row>
-    <row r="58" spans="1:16">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A58" s="32" t="s">
         <v>37</v>
       </c>
@@ -3617,16 +3606,16 @@
       <c r="G58" s="29"/>
       <c r="H58" s="29"/>
     </row>
-    <row r="59" spans="1:16" ht="16.5">
+    <row r="59" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A59" s="22"/>
-      <c r="B59" s="6" t="s">
+      <c r="B59" s="29" t="s">
         <v>51</v>
       </c>
       <c r="C59" s="22"/>
       <c r="D59" s="33"/>
       <c r="E59" s="34"/>
     </row>
-    <row r="60" spans="1:16">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A60" s="22"/>
       <c r="B60" s="29"/>
       <c r="C60" s="30"/>
@@ -3634,60 +3623,59 @@
       <c r="E60" s="30"/>
       <c r="F60" s="31"/>
     </row>
-    <row r="61" spans="1:16">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A61" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="B61" s="69" t="s">
+      <c r="B61" s="68" t="s">
         <v>44</v>
       </c>
-      <c r="C61" s="72"/>
-      <c r="D61" s="72"/>
-      <c r="E61" s="72"/>
-      <c r="F61" s="72"/>
-      <c r="G61" s="72"/>
-      <c r="H61" s="72"/>
-      <c r="I61" s="72"/>
-    </row>
-    <row r="62" spans="1:16">
+      <c r="C61" s="71"/>
+      <c r="D61" s="71"/>
+      <c r="E61" s="71"/>
+      <c r="F61" s="71"/>
+      <c r="G61" s="71"/>
+      <c r="H61" s="71"/>
+      <c r="I61" s="71"/>
+    </row>
+    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A62" s="32"/>
-      <c r="B62" s="72"/>
-      <c r="C62" s="72"/>
-      <c r="D62" s="72"/>
-      <c r="E62" s="72"/>
-      <c r="F62" s="72"/>
-      <c r="G62" s="72"/>
-      <c r="H62" s="72"/>
-      <c r="I62" s="72"/>
-    </row>
-    <row r="63" spans="1:16">
+      <c r="B62" s="71"/>
+      <c r="C62" s="71"/>
+      <c r="D62" s="71"/>
+      <c r="E62" s="71"/>
+      <c r="F62" s="71"/>
+      <c r="G62" s="71"/>
+      <c r="H62" s="71"/>
+      <c r="I62" s="71"/>
+    </row>
+    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A63" s="32"/>
     </row>
-    <row r="64" spans="1:16" ht="15.95" customHeight="1">
+    <row r="64" spans="1:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="32"/>
     </row>
-    <row r="65" spans="1:5">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="22"/>
       <c r="B65" s="22"/>
       <c r="C65" s="33"/>
       <c r="D65" s="34"/>
       <c r="E65" s="22"/>
     </row>
-    <row r="66" spans="1:5">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="22"/>
     </row>
-    <row r="67" spans="1:5" ht="16.5">
+    <row r="67" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A67" s="29" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="77" spans="1:5" ht="15.95" customHeight="1"/>
-    <row r="78" spans="1:5" ht="15.95" customHeight="1"/>
-    <row r="79" spans="1:5" ht="15.95" customHeight="1"/>
+    <row r="77" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="78" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="79" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="1">
     <mergeCell ref="B61:I62"/>
-    <mergeCell ref="H1:J1"/>
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.19685039370078741" right="0.23622047244094491" top="1.0236220472440944" bottom="0.23622047244094491" header="0.27559055118110237" footer="0.23622047244094491"/>
